--- a/Data/AFR_sto.xlsx
+++ b/Data/AFR_sto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MATLAB\q2y1cbl\PROJECT\codegroup6\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EB759-AFED-4603-9F20-57EB8E5955F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8F688-4E25-477D-8199-E908E291DA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2580" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,6 +386,18 @@
       <c r="A2">
         <v>14.5</v>
       </c>
+      <c r="B2">
+        <v>14.7</v>
+      </c>
+      <c r="C2">
+        <v>14.6</v>
+      </c>
+      <c r="D2">
+        <v>14.55</v>
+      </c>
+      <c r="E2">
+        <v>14.525</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
